--- a/Liste de tâches ménagères1.xlsx
+++ b/Liste de tâches ménagères1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC239CD-B0B0-4E8D-9DE6-8CEBCD935631}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00C7296-31C3-4FC4-A70E-0B35B48520B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste des tâches" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t xml:space="preserve">                            </t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>---</t>
-  </si>
-  <si>
-    <t>quiz</t>
   </si>
   <si>
     <t>add mailing feature</t>
@@ -873,32 +870,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1777,7 +1774,7 @@
   </sheetPr>
   <dimension ref="A1:XFB23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1820,11 +1817,11 @@
     </row>
     <row r="2" spans="1:15" ht="21.75" customHeight="1">
       <c r="A2" s="8"/>
-      <c r="B2" s="31">
+      <c r="B2" s="39">
         <f ca="1">TODAY()</f>
-        <v>44259</v>
-      </c>
-      <c r="C2" s="31"/>
+        <v>44271</v>
+      </c>
+      <c r="C2" s="39"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="G2" s="3"/>
@@ -1935,14 +1932,14 @@
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="B8" s="19"/>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="35">
         <f ca="1">TODAY()+30</f>
-        <v>44289</v>
-      </c>
-      <c r="E8" s="37" t="s">
+        <v>44301</v>
+      </c>
+      <c r="E8" s="36" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="2"/>
@@ -1961,7 +1958,7 @@
       </c>
       <c r="D9" s="5">
         <f ca="1">D8+1</f>
-        <v>44290</v>
+        <v>44302</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
@@ -1982,7 +1979,7 @@
       </c>
       <c r="D10" s="5">
         <f ca="1">TODAY()+3</f>
-        <v>44262</v>
+        <v>44274</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -1998,13 +1995,13 @@
       <c r="B11" s="27">
         <v>1</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="32">
         <v>44289</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="33" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="2"/>
@@ -2188,7 +2185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8A3BE2-F343-4F22-969F-3D43C6EA017C}">
   <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2218,8 +2215,8 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>32</v>
+      <c r="B3" s="38" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="42.5" customHeight="1">
@@ -2231,7 +2228,7 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2251,7 +2248,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="37" customHeight="1">
@@ -2259,15 +2256,15 @@
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="37.5" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="37.5" customHeight="1">
@@ -2386,15 +2383,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2602,6 +2590,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2612,16 +2609,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03CCC4C8-6A95-4999-B963-115A022CA31F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7118F064-9046-4DCB-A010-2D274D0FB549}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2641,6 +2628,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03CCC4C8-6A95-4999-B963-115A022CA31F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{920DC3BD-3C4B-4C78-91FF-63EB10F70D2C}">
   <ds:schemaRefs>
